--- a/data/2019/encuesta2019.xlsx
+++ b/data/2019/encuesta2019.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tefi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCode\practica-uji\data\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -60,19 +60,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,9 +89,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -379,45 +372,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1">
+        <v>43475</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
         <v>43475</v>
       </c>
       <c r="B3">
@@ -439,11 +455,11 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
         <v>43475</v>
       </c>
       <c r="B4">
@@ -468,8 +484,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
         <v>43475</v>
       </c>
       <c r="B5">
@@ -488,14 +504,14 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
         <v>43475</v>
       </c>
       <c r="B6">
@@ -505,23 +521,23 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
         <v>43475</v>
       </c>
       <c r="B7">
@@ -531,23 +547,23 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
         <v>43475</v>
       </c>
       <c r="B8">
@@ -572,8 +588,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
         <v>43475</v>
       </c>
       <c r="B9">
@@ -595,11 +611,11 @@
         <v>2</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
         <v>43475</v>
       </c>
       <c r="B10">
@@ -621,11 +637,11 @@
         <v>2</v>
       </c>
       <c r="H10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
         <v>43475</v>
       </c>
       <c r="B11">
@@ -635,23 +651,23 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
         <v>43475</v>
       </c>
       <c r="B12">
@@ -661,155 +677,155 @@
         <v>8</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1">
+        <v>43475</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1">
+        <v>43475</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1">
+        <v>43475</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1">
+        <v>43475</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1">
+        <v>43475</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>0</v>
       </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1">
         <v>43475</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>43475</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>43475</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>43475</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>43475</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>43475</v>
-      </c>
       <c r="B18">
         <v>1</v>
       </c>
@@ -817,7 +833,7 @@
         <v>8</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -826,27 +842,27 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>43475</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1">
+        <v>43481</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -858,8 +874,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1">
         <v>43481</v>
       </c>
       <c r="B20">
@@ -875,17 +891,17 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="H20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1">
         <v>43481</v>
       </c>
       <c r="B21">
@@ -898,20 +914,20 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1">
         <v>43481</v>
       </c>
       <c r="B22">
@@ -924,20 +940,20 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1">
         <v>43481</v>
       </c>
       <c r="B23">
@@ -947,23 +963,23 @@
         <v>9</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1">
         <v>43481</v>
       </c>
       <c r="B24">
@@ -973,7 +989,7 @@
         <v>9</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -985,11 +1001,11 @@
         <v>2</v>
       </c>
       <c r="H24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1">
         <v>43481</v>
       </c>
       <c r="B25">
@@ -999,7 +1015,7 @@
         <v>9</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1011,11 +1027,11 @@
         <v>2</v>
       </c>
       <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1">
         <v>43481</v>
       </c>
       <c r="B26">
@@ -1025,13 +1041,13 @@
         <v>9</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1040,8 +1056,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1">
         <v>43481</v>
       </c>
       <c r="B27">
@@ -1054,10 +1070,10 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1066,8 +1082,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1">
         <v>43481</v>
       </c>
       <c r="B28">
@@ -1080,10 +1096,10 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1092,8 +1108,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1">
         <v>43481</v>
       </c>
       <c r="B29">
@@ -1106,10 +1122,10 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1118,8 +1134,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1">
         <v>43481</v>
       </c>
       <c r="B30">
@@ -1132,20 +1148,20 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1">
         <v>43481</v>
       </c>
       <c r="B31">
@@ -1155,101 +1171,101 @@
         <v>9</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1">
+        <v>43481</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1">
+        <v>43481</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1">
+        <v>43481</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>43481</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>43481</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>43481</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1">
         <v>43481</v>
       </c>
       <c r="B35">
@@ -1259,7 +1275,7 @@
         <v>8</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -1268,131 +1284,131 @@
         <v>2</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1">
+        <v>43481</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1">
+        <v>43481</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1">
+        <v>43481</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1">
+        <v>43481</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1">
+        <v>43481</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>43481</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>43481</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>43481</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>43481</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>43481</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -1404,8 +1420,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1">
         <v>43481</v>
       </c>
       <c r="B41">
@@ -1415,65 +1431,65 @@
         <v>8</v>
       </c>
       <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1">
+        <v>43481</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1">
+        <v>43481</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43">
         <v>0</v>
       </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>43481</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-      <c r="H42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>43481</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1482,8 +1498,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1">
         <v>43481</v>
       </c>
       <c r="B44">
@@ -1502,121 +1518,95 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>43481</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/2019/encuesta2019.xlsx
+++ b/data/2019/encuesta2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="10">
   <si>
     <t>fecha</t>
   </si>
@@ -60,8 +60,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -89,9 +97,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,8 +383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1525,63 +1534,225 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1">
+        <v>43486</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <v>43486</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1">
+        <v>43486</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1">
+        <v>43486</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1">
+        <v>43486</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1">
+        <v>43486</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1">
+        <v>43486</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -1610,5 +1781,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>